--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,16 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">к доплате </t>
-  </si>
-  <si>
-    <t>доплатили</t>
-  </si>
-  <si>
-    <t>начислено по показаниям 2731,00, оплачено -2720,00,  к доплате 11,00</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты на 89 дн. 2720,00х0,1%х49=133,28</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 89 д</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -128,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,35 +164,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -204,18 +180,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,28 +198,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,10 +518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,498 +529,336 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>43852</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>43852</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43852</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43639</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17620</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1150</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F2" s="13">
+        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
+        <v>5255.5</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(F2,F3)</f>
+        <v>5382.17</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5382.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>53</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" si="0"/>
+        <v>126.67</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>43669</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>19210</v>
+        <v>18070</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C6)</f>
-        <v>500</v>
-      </c>
-      <c r="E4" s="10">
+        <f>SUM(C4,-C2)</f>
+        <v>450</v>
+      </c>
+      <c r="E4" s="8">
         <v>4.49</v>
       </c>
-      <c r="F4" s="5">
-        <f>D4*E4</f>
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>2020.5</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>2069.1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2069.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>9670</v>
+        <v>9220</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" ref="D5:D11" si="1">SUM(C5,-C3)</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="5">
-        <f>D5*E5</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43761</v>
+        <v>48.6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>43704</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>18710</v>
+        <v>18370</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="5">
-        <f>D6*E6</f>
-        <v>1526.6000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>1383.45</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1383.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>9470</v>
+        <v>9235</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="5">
-        <f>D7*E7</f>
-        <v>571.05000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>43704</v>
+        <v>36.450000000000003</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43761</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>18370</v>
+        <v>18710</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="E8" s="8">
         <v>4.49</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F13" si="1">D8*E8</f>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="13">
+        <f>D8*E8</f>
+        <v>1526.6000000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>2097.65</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2097.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>9235</v>
+        <v>9470</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="E9" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43669</v>
+      <c r="F9" s="13">
+        <f>D9*E9</f>
+        <v>571.05000000000007</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>43852</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>18070</v>
+        <v>19210</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E10" s="8">
         <v>4.49</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>2020.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="F10" s="13">
+        <f>D10*E10</f>
+        <v>2245</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>2731</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>9220</v>
+        <v>9670</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43639</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>17620</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(C12,-C16)</f>
-        <v>1150</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>5255.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9200</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(C13,-C17)</f>
-        <v>53</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>126.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43615</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13">
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>43543</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16470</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D23" si="2">SUM(C16,-C18)</f>
-        <v>150</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*E16</f>
-        <v>685.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9147</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="5">
-        <f>D17*E17</f>
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43366</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>16320</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F23" si="3">D18*E18</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9097</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43323</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>16220</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="3"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9097</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2.35</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="3"/>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43232</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>16070</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.29</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="3"/>
-        <v>3861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9047</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>2600</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.17</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="3"/>
-        <v>5642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43204</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>15170</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6447</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F11" s="13">
+        <f>D11*E11</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>43852</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5">
+        <v>133.28</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5">
+        <f>SUM(G2:G12)</f>
+        <v>13796.650000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <f>SUM(H2:H12)</f>
+        <v>13652.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="12"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <f>SUM(H13,-G13)</f>
+        <v>-143.98000000000138</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +99,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -208,8 +201,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,36 +815,93 @@
       <c r="A12" s="11">
         <v>43852</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
       <c r="G12" s="5">
         <v>133.28</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="12" t="s">
+      <c r="A13" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F13" s="13">
+        <f>D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2720</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D13:D14" si="2">SUM(C14,-C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F14" s="13">
+        <f>D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G15" s="5">
         <f>SUM(G2:G12)</f>
         <v>13796.650000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H15" s="5">
         <f>SUM(H2:H12)</f>
         <v>13652.67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="12"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <f>SUM(H13,-G13)</f>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="12"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <f>SUM(H15,-G15)</f>
         <v>-143.98000000000138</v>
       </c>
     </row>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
         <v>9220</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D11" si="1">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D13" si="1">SUM(C5,-C3)</f>
         <v>20</v>
       </c>
       <c r="E5" s="9">
@@ -843,20 +843,22 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>19710</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <f>SUM(C13,-C10)</f>
+        <v>500</v>
       </c>
       <c r="E13" s="8">
         <v>4.49</v>
       </c>
       <c r="F13" s="13">
         <f>D13*E13</f>
-        <v>0</v>
+        <v>2245</v>
       </c>
       <c r="G13" s="5">
-        <v>2720</v>
+        <f>SUM(F13,F14)</f>
+        <v>2731</v>
       </c>
       <c r="H13" s="5">
         <v>2720</v>
@@ -868,40 +870,91 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>9870</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D13:D14" si="2">SUM(C14,-C12)</f>
-        <v>0</v>
+        <f>SUM(C14,-C11)</f>
+        <v>200</v>
       </c>
       <c r="E14" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F14" s="13">
         <f>D14*E14</f>
-        <v>0</v>
+        <v>486.00000000000006</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="12" t="s">
+      <c r="A15" s="7">
+        <v>43971</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20210</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C13)</f>
+        <v>500</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F15" s="13">
+        <f>D15*E15</f>
+        <v>2245</v>
+      </c>
+      <c r="G15" s="5">
+        <f>SUM(F15,F16)</f>
+        <v>2731</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10070</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C14)</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F16" s="13">
+        <f>D16*E16</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G17" s="5">
         <f>SUM(G2:G12)</f>
         <v>13796.650000000001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H17" s="5">
         <f>SUM(H2:H12)</f>
         <v>13652.67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="12"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
-        <f>SUM(H15,-G15)</f>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="12"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
+        <f>SUM(H17,-G17)</f>
         <v>-143.98000000000138</v>
       </c>
     </row>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -113,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +654,7 @@
         <v>9220</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D13" si="1">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D11" si="1">SUM(C5,-C3)</f>
         <v>20</v>
       </c>
       <c r="E5" s="9">
@@ -937,25 +946,76 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="12" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44040</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20710</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C15)</f>
+        <v>500</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="13">
+        <f>D17*E17</f>
+        <v>2355</v>
+      </c>
+      <c r="G17" s="16">
+        <f>SUM(F17,F18)</f>
+        <v>2865</v>
+      </c>
+      <c r="H17" s="16">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10270</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="13">
+        <f>D18*E18</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="5">
-        <f>SUM(G2:G12)</f>
-        <v>13796.650000000001</v>
-      </c>
-      <c r="H17" s="5">
-        <f>SUM(H2:H12)</f>
-        <v>13652.67</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="12"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
-        <f>SUM(H17,-G17)</f>
-        <v>-143.98000000000138</v>
+      <c r="G19" s="5">
+        <f>SUM(G2:G18)</f>
+        <v>22123.65</v>
+      </c>
+      <c r="H19" s="5">
+        <f>SUM(H2:H18)</f>
+        <v>24027.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="12"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <f>SUM(H19,-G19)</f>
+        <v>1904.0199999999968</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -520,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>4.49</v>
       </c>
       <c r="F13" s="13">
-        <f>D13*E13</f>
+        <f t="shared" ref="F13:F18" si="2">D13*E13</f>
         <v>2245</v>
       </c>
       <c r="G13" s="5">
@@ -889,7 +889,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F14" s="13">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G14" s="5"/>
@@ -913,7 +913,7 @@
         <v>4.49</v>
       </c>
       <c r="F15" s="13">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>2245</v>
       </c>
       <c r="G15" s="5">
@@ -940,7 +940,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F16" s="13">
-        <f>D16*E16</f>
+        <f t="shared" si="2"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G16" s="5"/>
@@ -964,7 +964,7 @@
         <v>4.71</v>
       </c>
       <c r="F17" s="13">
-        <f>D17*E17</f>
+        <f t="shared" si="2"/>
         <v>2355</v>
       </c>
       <c r="G17" s="16">
@@ -991,31 +991,82 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="13">
-        <f>D18*E18</f>
+        <f t="shared" si="2"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="12" t="s">
+      <c r="A19" s="7">
+        <v>44190</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22910</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C17)</f>
+        <v>2200</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19:F20" si="3">D19*E19</f>
+        <v>10362</v>
+      </c>
+      <c r="G19" s="16">
+        <f>SUM(F19,F20)</f>
+        <v>13804.5</v>
+      </c>
+      <c r="H19" s="16">
+        <v>11970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11620</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C18)</f>
+        <v>1350</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="3"/>
+        <v>3442.4999999999995</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="5">
-        <f>SUM(G2:G18)</f>
-        <v>22123.65</v>
-      </c>
-      <c r="H19" s="5">
-        <f>SUM(H2:H18)</f>
-        <v>24027.67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="12"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
-        <f>SUM(H19,-G19)</f>
-        <v>1904.0199999999968</v>
+      <c r="G21" s="5">
+        <f>SUM(G2:G20)</f>
+        <v>35928.15</v>
+      </c>
+      <c r="H21" s="5">
+        <f>SUM(H2:H20)</f>
+        <v>35997.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="12"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <f>SUM(H21,-G21)</f>
+        <v>69.519999999996799</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -122,7 +122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>20210</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" ref="D15:D22" si="3">SUM(C15,-C13)</f>
         <v>500</v>
       </c>
       <c r="E15" s="8">
@@ -933,7 +933,7 @@
         <v>10070</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E16" s="9">
@@ -957,7 +957,7 @@
         <v>20710</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="E17" s="8">
@@ -984,7 +984,7 @@
         <v>10270</v>
       </c>
       <c r="D18" s="2">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E18" s="9">
@@ -994,8 +994,8 @@
         <f t="shared" si="2"/>
         <v>509.99999999999994</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -1008,14 +1008,14 @@
         <v>22910</v>
       </c>
       <c r="D19" s="2">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="3"/>
         <v>2200</v>
       </c>
       <c r="E19" s="8">
         <v>4.71</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" ref="F19:F20" si="3">D19*E19</f>
+        <f t="shared" ref="F19:F20" si="4">D19*E19</f>
         <v>10362</v>
       </c>
       <c r="G19" s="16">
@@ -1035,37 +1035,88 @@
         <v>11620</v>
       </c>
       <c r="D20" s="2">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" si="3"/>
         <v>1350</v>
       </c>
       <c r="E20" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3442.4999999999995</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="12" t="s">
+      <c r="A21" s="7">
+        <v>44208</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24210</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" ref="F21:F22" si="5">D21*E21</f>
+        <v>6123</v>
+      </c>
+      <c r="G21" s="16">
+        <f>SUM(F21,F22)</f>
+        <v>8163</v>
+      </c>
+      <c r="H21" s="16">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12420</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="5"/>
+        <v>2039.9999999999998</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="5">
-        <f>SUM(G2:G20)</f>
-        <v>35928.15</v>
-      </c>
-      <c r="H21" s="5">
-        <f>SUM(H2:H20)</f>
-        <v>35997.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="12"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5">
-        <f>SUM(H21,-G21)</f>
+      <c r="G23" s="5">
+        <f>SUM(G2:G22)</f>
+        <v>44091.15</v>
+      </c>
+      <c r="H23" s="5">
+        <f>SUM(H2:H22)</f>
+        <v>44160.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="12"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <f>SUM(H23,-G23)</f>
         <v>69.519999999996799</v>
       </c>
     </row>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -520,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1100,23 +1100,74 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="12" t="s">
+      <c r="A23" s="7">
+        <v>44260</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>24210</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:D24" si="6">SUM(C23,-C21)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" ref="F23:F24" si="7">D23*E23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <f>SUM(F23,F24)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12420</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G25" s="5">
         <f>SUM(G2:G22)</f>
         <v>44091.15</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H25" s="5">
         <f>SUM(H2:H22)</f>
         <v>44160.67</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="12"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5">
-        <f>SUM(H23,-G23)</f>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="12"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
+        <f>SUM(H25,-G25)</f>
         <v>69.519999999996799</v>
       </c>
     </row>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -520,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1151,23 +1151,74 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="12" t="s">
+      <c r="A25" s="7">
+        <v>44329</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24800</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D26" si="8">SUM(C25,-C23)</f>
+        <v>590</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" ref="F25:F26" si="9">D25*E25</f>
+        <v>2778.9</v>
+      </c>
+      <c r="G25" s="16">
+        <f>SUM(F25,F26)</f>
+        <v>3492.9</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1098.9000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="9"/>
+        <v>714</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="5">
-        <f>SUM(G2:G22)</f>
-        <v>44091.15</v>
-      </c>
-      <c r="H25" s="5">
-        <f>SUM(H2:H22)</f>
-        <v>44160.67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="12"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <f>SUM(H25,-G25)</f>
+      <c r="G27" s="5">
+        <f>SUM(G2:G26)</f>
+        <v>47584.05</v>
+      </c>
+      <c r="H27" s="5">
+        <f>SUM(H2:H26)</f>
+        <v>47653.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
+        <f>SUM(H27,-G27)</f>
         <v>69.519999999996799</v>
       </c>
     </row>

--- a/sputnik/personal/ee/14ee.xlsx
+++ b/sputnik/personal/ee/14ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +217,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1133,7 @@
         <f>SUM(F23,F24)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="17">
         <v>2394</v>
       </c>
     </row>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -1171,11 +1180,11 @@
         <f t="shared" ref="F25:F26" si="9">D25*E25</f>
         <v>2778.9</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="17">
         <f>SUM(F25,F26)</f>
         <v>3492.9</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="17">
         <v>1098.9000000000001</v>
       </c>
     </row>
@@ -1202,23 +1211,74 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="12" t="s">
+      <c r="A27" s="7">
+        <v>44446</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24850</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D28" si="10">SUM(C27,-C25)</f>
+        <v>50</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" ref="F27:F28" si="11">D27*E27</f>
+        <v>248</v>
+      </c>
+      <c r="G27" s="16">
+        <f>SUM(F27,F28)</f>
+        <v>1320</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>13100</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="11"/>
+        <v>1072</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G29" s="5">
         <f>SUM(G2:G26)</f>
         <v>47584.05</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H29" s="5">
         <f>SUM(H2:H26)</f>
         <v>47653.57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="12"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5">
-        <f>SUM(H27,-G27)</f>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="12"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
+        <f>SUM(H29,-G29)</f>
         <v>69.519999999996799</v>
       </c>
     </row>
